--- a/src/test/java/data/ExcelUserData.xlsx
+++ b/src/test/java/data/ExcelUserData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelliJWorkspace\TestAutomationFramework\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,16 +32,16 @@
     <t>galal</t>
   </si>
   <si>
-    <t>amira@galal.com</t>
-  </si>
-  <si>
     <t>hamsa</t>
   </si>
   <si>
     <t>mohamed</t>
   </si>
   <si>
-    <t>hamsa@gmail.com</t>
+    <t>amira1@galal.com</t>
+  </si>
+  <si>
+    <t>hamsa2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1">
         <v>123456789</v>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
